--- a/liensAllUserPT.xlsx
+++ b/liensAllUserPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A958EA-A67F-4C86-9D1B-C4F2AEC9C103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F15BC7-5714-4F4D-A71E-5324450ED59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57930" yWindow="3225" windowWidth="21255" windowHeight="17325" xr2:uid="{33BB5F02-F41A-4CBC-B89F-F5A26C95A7F5}"/>
+    <workbookView xWindow="35445" yWindow="2250" windowWidth="21255" windowHeight="17325" xr2:uid="{33BB5F02-F41A-4CBC-B89F-F5A26C95A7F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="75">
   <si>
     <t>Recursor HumanosPT</t>
   </si>
@@ -96,12 +96,6 @@
   </si>
   <si>
     <t>microsoft-edge:http://srvngsiasngsprd002.kiabi.fr:7778/forms/frmservlet?config=iasngs_esp_7</t>
-  </si>
-  <si>
-    <t>Ancienne Bureautique :</t>
-  </si>
-  <si>
-    <t>http://vipiisxen01.kiabi.fr/Citrix/WIDKP/auth/login.aspx</t>
   </si>
   <si>
     <t>Leganes CL ClientPT</t>
@@ -668,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AED3AD-04AB-4708-963E-771C9C9B62BB}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,22 +781,14 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
@@ -819,7 +805,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
@@ -831,7 +817,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
@@ -843,21 +829,21 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
@@ -869,40 +855,40 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -910,16 +896,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -927,38 +913,38 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>14</v>
@@ -969,19 +955,19 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
@@ -993,10 +979,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -1010,14 +996,14 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -1025,36 +1011,36 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
@@ -1068,14 +1054,14 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -1083,28 +1069,28 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
@@ -1112,16 +1098,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E32" t="s">
         <v>13</v>
@@ -1129,16 +1115,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s">
         <v>13</v>
@@ -1146,16 +1132,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E34" t="s">
         <v>13</v>
@@ -1163,16 +1149,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
@@ -1180,16 +1166,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E36" t="s">
         <v>13</v>
@@ -1197,16 +1183,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
@@ -1214,16 +1200,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
         <v>13</v>
@@ -1231,16 +1217,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s">
         <v>13</v>
@@ -1248,21 +1234,21 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
@@ -1274,7 +1260,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
@@ -1286,10 +1272,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>18</v>
@@ -1303,14 +1289,14 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E44" t="s">
         <v>13</v>
@@ -1318,19 +1304,19 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>1</v>
@@ -1344,7 +1330,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
@@ -1356,16 +1342,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E48" t="s">
         <v>13</v>
@@ -1373,14 +1359,14 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
         <v>13</v>
@@ -1388,10 +1374,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>18</v>
@@ -1405,14 +1391,14 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E51" t="s">
         <v>13</v>
@@ -1420,22 +1406,22 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>14</v>
@@ -1446,19 +1432,19 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
@@ -1470,45 +1456,45 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">

--- a/liensAllUserPT.xlsx
+++ b/liensAllUserPT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\542879\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F15BC7-5714-4F4D-A71E-5324450ED59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF70059C-05EE-4083-A78F-080B1529965C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35445" yWindow="2250" windowWidth="21255" windowHeight="17325" xr2:uid="{33BB5F02-F41A-4CBC-B89F-F5A26C95A7F5}"/>
+    <workbookView xWindow="28695" yWindow="75" windowWidth="26010" windowHeight="20985" xr2:uid="{33BB5F02-F41A-4CBC-B89F-F5A26C95A7F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="67">
   <si>
     <t>Recursor HumanosPT</t>
   </si>
@@ -44,18 +44,6 @@
     <t>Liens :</t>
   </si>
   <si>
-    <t>K'IAM</t>
-  </si>
-  <si>
-    <t>https://iamuaprod.kiabi.fr/idmdash</t>
-  </si>
-  <si>
-    <t>TalentEd</t>
-  </si>
-  <si>
-    <t>https://talented.gcp.kiabi.pro</t>
-  </si>
-  <si>
     <t>Docubase</t>
   </si>
   <si>
@@ -104,12 +92,6 @@
     <t>OutilsPT</t>
   </si>
   <si>
-    <t>Easy-It</t>
-  </si>
-  <si>
-    <t>https://easy-it.kiabi.fr/</t>
-  </si>
-  <si>
     <t>Forecast &amp; Replenishment</t>
   </si>
   <si>
@@ -117,12 +99,6 @@
   </si>
   <si>
     <t>Programa de DecisionPT</t>
-  </si>
-  <si>
-    <t>Kiperf</t>
-  </si>
-  <si>
-    <t>https://kiperf.kiabi.pro/</t>
   </si>
   <si>
     <t>Zone de lancement BI</t>
@@ -662,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AED3AD-04AB-4708-963E-771C9C9B62BB}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,109 +651,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -788,720 +752,702 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
